--- a/test/integration/com/sysnet/profileexcelgenerator/Profile.xlsx
+++ b/test/integration/com/sysnet/profileexcelgenerator/Profile.xlsx
@@ -19,7 +19,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1:BK2"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5152" uniqueCount="131">
   <si>
     <t>Scenario</t>
   </si>
@@ -694,7 +694,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,84 +1017,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2078,84 +2079,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3140,84 +3141,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4202,84 +4203,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5264,84 +5265,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6326,84 +6327,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6985,7 +6986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7388,84 +7389,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8047,7 +8048,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8450,84 +8451,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="13.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8717,11 +8718,11 @@
       <c r="BK1" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="100.0" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8911,11 +8912,11 @@
       <c r="BK2" t="s">
         <v>127</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BL2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="100.0" customHeight="true">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9105,11 +9106,11 @@
       <c r="BK3" t="s">
         <v>127</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BL3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="100.0" customHeight="true">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9299,11 +9300,11 @@
       <c r="BK4" t="s">
         <v>127</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BL4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="100.0" customHeight="true">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9493,7 +9494,7 @@
       <c r="BK5" t="s">
         <v>127</v>
       </c>
-      <c r="BL5" s="1" t="s">
+      <c r="BL5" t="s">
         <v>128</v>
       </c>
     </row>

--- a/test/integration/com/sysnet/profileexcelgenerator/Profile.xlsx
+++ b/test/integration/com/sysnet/profileexcelgenerator/Profile.xlsx
@@ -19,7 +19,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1:BK2"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5152" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="131">
   <si>
     <t>Scenario</t>
   </si>
@@ -694,8 +694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,84 +1016,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2079,84 +2078,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3141,84 +3140,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4203,84 +4202,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5265,84 +5264,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6327,84 +6326,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7389,84 +7388,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7660,7 +7659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8451,84 +8450,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" width="0.01953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="64" max="64" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="13.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8718,11 +8717,11 @@
       <c r="BK1" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.0" customHeight="true">
+    <row r="2" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8912,11 +8911,11 @@
       <c r="BK2" t="s">
         <v>127</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BL2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" ht="100.0" customHeight="true">
+    <row r="3" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9106,11 +9105,11 @@
       <c r="BK3" t="s">
         <v>127</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BL3" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" ht="100.0" customHeight="true">
+    <row r="4" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9300,11 +9299,11 @@
       <c r="BK4" t="s">
         <v>127</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BL4" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" ht="100.0" customHeight="true">
+    <row r="5" spans="1:64" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9494,7 +9493,7 @@
       <c r="BK5" t="s">
         <v>127</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BL5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
